--- a/Source/Documentation/Device Definitions Examples & Templates/openXDA Configuration Template - PQ.xlsx
+++ b/Source/Documentation/Device Definitions Examples & Templates/openXDA Configuration Template - PQ.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="9540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Analytics (optional)" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>USE</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Attributes</t>
   </si>
   <si>
-    <t>Information about the location of the device.</t>
-  </si>
-  <si>
     <t>line id=</t>
   </si>
   <si>
@@ -81,12 +78,6 @@
     <t>endStationName</t>
   </si>
   <si>
-    <t>Nominal voltage in kV.</t>
-  </si>
-  <si>
-    <t>Accurate line length, specified in miles by default.</t>
-  </si>
-  <si>
     <t>make</t>
   </si>
   <si>
@@ -99,12 +90,6 @@
     <t>stationName</t>
   </si>
   <si>
-    <t>stationID at the other end of the line if a reporting device is located there.</t>
-  </si>
-  <si>
-    <t>stationName at the other end of the line if a reporting device is located there.</t>
-  </si>
-  <si>
     <t>Impedances</t>
   </si>
   <si>
@@ -117,20 +102,56 @@
     <t>X1</t>
   </si>
   <si>
-    <t>Positive sequence resistance.</t>
-  </si>
-  <si>
-    <t>Positive sequence reactance.</t>
-  </si>
-  <si>
-    <t>Zero sequence reactance.</t>
-  </si>
-  <si>
-    <t>Zero sequence resistance.</t>
+    <t>Nominal impedance of the line specified in ohms.</t>
+  </si>
+  <si>
+    <t>X0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fault distances will only be calculated if line parameters are specified in the device definition. The analytics section defines the single ended fault location algorithms to be used by the system when line fault distances are being calculated.  By default, all of the following fault location algorithms are available and will be used to calculate fault distances and generate fault distance curves. Please remove the X from the USE column beside any algorithm that you do not want used. </t>
+  </si>
+  <si>
+    <t>As a general rule, the device id is the name of the folder where the data is stored for that device. PQ Data is assumed to be in PQDIF format.</t>
+  </si>
+  <si>
+    <t>NOTE: If no lines are being monitored, remove the section outlined in blue.</t>
+  </si>
+  <si>
+    <t>Parameter Description</t>
+  </si>
+  <si>
+    <t>Your Value</t>
+  </si>
+  <si>
+    <t>Line or Location</t>
+  </si>
+  <si>
+    <t>NOTE: The line id parameter is used identify the location whether it is actually a line or not</t>
+  </si>
+  <si>
+    <t>stationLatitude</t>
+  </si>
+  <si>
+    <t>stationLongitude</t>
+  </si>
+  <si>
+    <t>Specific information about the reporting device; PQ Monitor etc. Up to 200 alphanumeric characters for each field.</t>
+  </si>
+  <si>
+    <t>This template is intended for use in configuring an openXDA database for PQ devices. Each device must be defined by specifying the information described below. Please enter a value for each parameter. "ID" fields are limited to 50 alphanumeric characters, other non-numeric fields can contain up to 200 alphanumeric characters.</t>
+  </si>
+  <si>
+    <t>Unique ID for the location of the device: Up to 50 alphanumeric characters.</t>
+  </si>
+  <si>
+    <t>Human readable name for the location: Up to 200 alphanumeric characters.</t>
+  </si>
+  <si>
+    <t>Numeric decimal value</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Unique ID; If a device is located at the other end of this line it should use the same </t>
+      <t xml:space="preserve">Unique ID: If a device is located at the other end of a line it should use the same </t>
     </r>
     <r>
       <rPr>
@@ -155,49 +176,54 @@
     </r>
   </si>
   <si>
-    <t>Nominal impedance of the line specified in ohms.</t>
-  </si>
-  <si>
-    <t>X0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fault distances will only be calculated if line parameters are specified in the device definition. The analytics section defines the single ended fault location algorithms to be used by the system when line fault distances are being calculated.  By default, all of the following fault location algorithms are available and will be used to calculate fault distances and generate fault distance curves. Please remove the X from the USE column beside any algorithm that you do not want used. </t>
-  </si>
-  <si>
-    <t>As a general rule, the device id is the name of the folder where the data is stored for that device. PQ Data is assumed to be in PQDIF format.</t>
-  </si>
-  <si>
-    <t>Specific information about the reporting device; PQ Monitor etc.</t>
-  </si>
-  <si>
-    <t>NOTE: If no lines are being monitored, remove the section outlined in blue.</t>
-  </si>
-  <si>
-    <t>Parameter Description</t>
-  </si>
-  <si>
-    <t>Your Value</t>
-  </si>
-  <si>
-    <t>Line or Location</t>
-  </si>
-  <si>
-    <t>NOTE: The line id parameter is used identify the location whether it is actually a line or not</t>
-  </si>
-  <si>
-    <t>Human readable name for the line or location</t>
-  </si>
-  <si>
-    <t>Each device must be defined by specifying the information described below. Please enter a value for each parameter. One spreadsheet can be used for each device, or multiple devices may be specified in a single spreadsheet.</t>
-  </si>
-  <si>
-    <t>To define additional devices in this spreadsheet, please copy this entire section and paste it below the definitions for the previous device.</t>
-  </si>
-  <si>
-    <t>stationLatitude</t>
-  </si>
-  <si>
-    <t>stationLongitude</t>
+    <t>Human readable name for the line or location: Up to 200 alphanumeric characters.</t>
+  </si>
+  <si>
+    <r>
+      <t>Nominal voltage in</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> kV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: numeric decimal value</t>
+    </r>
+  </si>
+  <si>
+    <t>Accurate line length, specified in miles by default: numeric decimal value</t>
+  </si>
+  <si>
+    <t>stationID at the other end of the line if a reporting device is located there: up to 50 char</t>
+  </si>
+  <si>
+    <t>stationName at the other end of the line if a reporting device is located there: up to 200 char</t>
+  </si>
+  <si>
+    <t>Positive sequence resistance: nummeric decimal value</t>
+  </si>
+  <si>
+    <t>Zero sequence resistance: nummeric decimal value</t>
+  </si>
+  <si>
+    <t>Positive sequence reactance: nummeric decimal value</t>
+  </si>
+  <si>
+    <t>Zero sequence reactance: nummeric decimal value</t>
   </si>
 </sst>
 </file>
@@ -229,7 +255,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,12 +288,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -279,7 +299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -415,83 +435,12 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -771,20 +720,238 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -805,77 +972,65 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -887,6 +1042,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -926,83 +1087,106 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1330,57 +1514,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
+      <c r="A1" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1447,127 +1631,126 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="12" max="13" width="2.85546875" customWidth="1"/>
+    <col min="12" max="12" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="39"/>
+      <c r="A1" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="39"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="39"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="35"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L4" s="40"/>
+      <c r="L4" s="36"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="13"/>
+      <c r="B5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="36"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="14"/>
+        <v>11</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="20"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="14"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="20"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L8" s="40"/>
-      <c r="M8" s="14"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="20"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="66" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="6"/>
@@ -1580,435 +1763,379 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="14"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="20"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="68"/>
+      <c r="C10" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="20"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="72"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="20"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="68"/>
+      <c r="C12" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="77"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="47" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="14"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="79"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="79"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="72"/>
+      <c r="C15" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="84"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="36"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="36"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="37"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="38"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="38"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="28"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="29"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="29"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="29"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="14"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="B25" s="24"/>
+      <c r="C25" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="29"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="80"/>
-      <c r="M12" s="14"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="B26" s="13"/>
+      <c r="C26" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="29"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="82"/>
-      <c r="M13" s="14"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="83" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="82"/>
-      <c r="M14" s="14"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="83" t="s">
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="29"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="86"/>
-      <c r="M15" s="14"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L16" s="40"/>
-      <c r="M16" s="14"/>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="14"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="14"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="14"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="14"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="31"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="31"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="31"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="31"/>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="29"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="31"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="31"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="31"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="B29" s="27"/>
+      <c r="C29" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="29"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="31"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="31"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="31"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="35"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="31"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M32" s="14"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M33" s="14"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="69" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="72"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="73"/>
-      <c r="B35" s="74"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="75"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="30"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="31"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A34:M35"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="C28:K28"/>
-    <mergeCell ref="C29:K29"/>
+  <mergeCells count="20">
+    <mergeCell ref="C15:K15"/>
     <mergeCell ref="C25:K25"/>
     <mergeCell ref="A1:K3"/>
     <mergeCell ref="C6:K7"/>
@@ -2021,7 +2148,13 @@
     <mergeCell ref="C23:K23"/>
     <mergeCell ref="C5:K5"/>
     <mergeCell ref="C17:K17"/>
-    <mergeCell ref="C12:K15"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="C29:K29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Source/Documentation/Device Definitions Examples & Templates/openXDA Configuration Template - PQ.xlsx
+++ b/Source/Documentation/Device Definitions Examples & Templates/openXDA Configuration Template - PQ.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Products\openXDA\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gpa.gridprotectionalliance.org\GPA\Share\Products\openXDA\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="9540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15615" windowHeight="11580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Analytics (optional)" sheetId="1" r:id="rId1"/>
@@ -133,12 +133,6 @@
   </si>
   <si>
     <t>stationLongitude</t>
-  </si>
-  <si>
-    <t>Specific information about the reporting device; PQ Monitor etc. Up to 200 alphanumeric characters for each field.</t>
-  </si>
-  <si>
-    <t>This template is intended for use in configuring an openXDA database for PQ devices. Each device must be defined by specifying the information described below. Please enter a value for each parameter. "ID" fields are limited to 50 alphanumeric characters, other non-numeric fields can contain up to 200 alphanumeric characters.</t>
   </si>
   <si>
     <t>Unique ID for the location of the device: Up to 50 alphanumeric characters.</t>
@@ -224,6 +218,12 @@
   </si>
   <si>
     <t>Zero sequence reactance: nummeric decimal value</t>
+  </si>
+  <si>
+    <t>This template is intended for use in configuring an openXDA database for data from substation devices such as PQ monitors or relays; one device per template. A separate template is available for DFRs. Each device must be defined by specifying the information described below. Please enter a value for each parameter. "ID" fields are limited to 50 alphanumeric characters, other non-numeric fields can contain up to 200 alphanumeric characters.</t>
+  </si>
+  <si>
+    <t>Specific information about the reporting device; PQ Monitor etc. Up to 200 alphanumeric characters each for make and model fields.</t>
   </si>
 </sst>
 </file>
@@ -1033,12 +1033,44 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1049,6 +1081,24 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1084,6 +1134,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1111,82 +1173,20 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1514,57 +1514,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1631,10 +1631,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1645,171 +1645,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="47"/>
+      <c r="A1" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="65"/>
       <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
       <c r="L2" s="35"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="66"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="68"/>
       <c r="L3" s="35"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L4" s="36"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="35"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="36"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C6" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="36"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="36"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="54" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="20"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="90"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="47"/>
       <c r="M7" s="20"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L8" s="36"/>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="47"/>
       <c r="M8" s="20"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
       <c r="L9" s="36"/>
       <c r="M9" s="20"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="20"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="20"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="71" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="20"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="20"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="75" t="s">
-        <v>38</v>
-      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="76"/>
       <c r="E12" s="76"/>
       <c r="F12" s="76"/>
@@ -1818,343 +1813,362 @@
       <c r="I12" s="76"/>
       <c r="J12" s="76"/>
       <c r="K12" s="77"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="78" t="s">
+      <c r="L12" s="48"/>
+      <c r="M12" s="20"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="89"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="57" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="91"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="91"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="59"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="36"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="36"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="79"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="80" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="57" t="s">
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="37"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="79"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="84"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L16" s="36"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="36"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="56" t="s">
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="38"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="37"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="41" t="s">
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="38"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="38"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="38"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="28"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="29"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="28"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="29"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="29"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="22"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="54"/>
       <c r="L24" s="29"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="29"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="87" t="s">
+      <c r="B26" s="24"/>
+      <c r="C26" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="29"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="29"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="29"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>23</v>
-      </c>
       <c r="B27" s="13"/>
-      <c r="C27" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="42"/>
+      <c r="C27" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="52"/>
       <c r="L27" s="29"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="29"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="29"/>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="26" t="s">
+      <c r="B29" s="13"/>
+      <c r="C29" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="29"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="29"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
+      <c r="B30" s="27"/>
+      <c r="C30" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="29"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="30"/>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="31"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="33"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="30"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="A1:K3"/>
-    <mergeCell ref="C6:K7"/>
-    <mergeCell ref="C10:K11"/>
-    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="A1:K4"/>
+    <mergeCell ref="C7:K8"/>
+    <mergeCell ref="C11:K12"/>
     <mergeCell ref="C19:K19"/>
     <mergeCell ref="C20:K20"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C26:K26"/>
     <mergeCell ref="C21:K21"/>
     <mergeCell ref="C22:K22"/>
     <mergeCell ref="C23:K23"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="C28:K28"/>
-    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="C24:K24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Source/Documentation/Device Definitions Examples & Templates/openXDA Configuration Template - PQ.xlsx
+++ b/Source/Documentation/Device Definitions Examples & Templates/openXDA Configuration Template - PQ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gpa.gridprotectionalliance.org\GPA\Share\Products\openXDA\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\openXDA\Source\Documentation\Device Definitions Examples &amp; Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>USE</t>
   </si>
@@ -133,12 +133,6 @@
   </si>
   <si>
     <t>stationLongitude</t>
-  </si>
-  <si>
-    <t>Unique ID for the location of the device: Up to 50 alphanumeric characters.</t>
-  </si>
-  <si>
-    <t>Human readable name for the location: Up to 200 alphanumeric characters.</t>
   </si>
   <si>
     <t>Numeric decimal value</t>
@@ -170,9 +164,6 @@
     </r>
   </si>
   <si>
-    <t>Human readable name for the line or location: Up to 200 alphanumeric characters.</t>
-  </si>
-  <si>
     <r>
       <t>Nominal voltage in</t>
     </r>
@@ -220,10 +211,22 @@
     <t>Zero sequence reactance: nummeric decimal value</t>
   </si>
   <si>
-    <t>This template is intended for use in configuring an openXDA database for data from substation devices such as PQ monitors or relays; one device per template. A separate template is available for DFRs. Each device must be defined by specifying the information described below. Please enter a value for each parameter. "ID" fields are limited to 50 alphanumeric characters, other non-numeric fields can contain up to 200 alphanumeric characters.</t>
-  </si>
-  <si>
-    <t>Specific information about the reporting device; PQ Monitor etc. Up to 200 alphanumeric characters each for make and model fields.</t>
+    <t>This template is intended for use in configuring an openXDA database for data from substation devices such as PQ monitors or relays; one device per template. A separate template is available for DFRs. Each device must be defined by specifying the information described below. Please enter a value for each parameter. "ID" fields are limited to 50 characters, other non-numeric fields can contain up to 200 characters.</t>
+  </si>
+  <si>
+    <t>Human readable name for the reporting device; PQ Monitor etc. Up to 200 characters.</t>
+  </si>
+  <si>
+    <t>Specific information about the reporting device; PQ Monitor etc. Up to 200 characters each for make and model fields.</t>
+  </si>
+  <si>
+    <t>Unique ID for the location of the device: Up to 50 characters.</t>
+  </si>
+  <si>
+    <t>Human readable name for the location: Up to 200 characters.</t>
+  </si>
+  <si>
+    <t>Human readable name for the line or location: Up to 200 characters.</t>
   </si>
 </sst>
 </file>
@@ -299,7 +302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -411,253 +414,233 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </right>
-      <top style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
@@ -951,7 +934,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -980,71 +963,71 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1053,7 +1036,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1065,42 +1048,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1119,74 +1066,101 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1634,7 +1608,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+      <selection sqref="A1:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1645,139 +1619,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="65"/>
+      <c r="A1" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="53"/>
       <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="68"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
       <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="68"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
       <c r="L3" s="35"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="35"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="36"/>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="69"/>
       <c r="L5" s="36"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="84" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="36"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="20"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
       <c r="L7" s="47"/>
       <c r="M7" s="20"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="47"/>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="36"/>
       <c r="M8" s="20"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="36"/>
       <c r="M9" s="20"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="36"/>
+      <c r="A10" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="48"/>
       <c r="M10" s="20"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1785,17 +1764,17 @@
         <v>17</v>
       </c>
       <c r="B11" s="41"/>
-      <c r="C11" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="75"/>
+      <c r="C11" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="60"/>
       <c r="L11" s="48"/>
       <c r="M11" s="20"/>
     </row>
@@ -1804,15 +1783,15 @@
         <v>18</v>
       </c>
       <c r="B12" s="43"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="77"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="62"/>
       <c r="L12" s="48"/>
       <c r="M12" s="20"/>
     </row>
@@ -1821,68 +1800,68 @@
         <v>19</v>
       </c>
       <c r="B13" s="41"/>
-      <c r="C13" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="89"/>
+      <c r="C13" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="72"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="13"/>
-      <c r="C14" s="79" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="91"/>
+      <c r="C14" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="74"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="13"/>
-      <c r="C15" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="91"/>
+      <c r="C15" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="74"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="46" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="43"/>
-      <c r="C16" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="59"/>
+      <c r="C16" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="82"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L17" s="36"/>
@@ -1892,17 +1871,17 @@
         <v>32</v>
       </c>
       <c r="B18" s="6"/>
-      <c r="C18" s="84" t="s">
+      <c r="C18" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="86"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="69"/>
       <c r="L18" s="36"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1910,17 +1889,17 @@
         <v>10</v>
       </c>
       <c r="B19" s="13"/>
-      <c r="C19" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="79"/>
+      <c r="C19" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="64"/>
       <c r="L19" s="37"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1928,17 +1907,17 @@
         <v>12</v>
       </c>
       <c r="B20" s="13"/>
-      <c r="C20" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="80"/>
+      <c r="C20" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="66"/>
       <c r="L20" s="38"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1946,17 +1925,17 @@
         <v>13</v>
       </c>
       <c r="B21" s="15"/>
-      <c r="C21" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="81"/>
+      <c r="C21" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
       <c r="L21" s="38"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1964,17 +1943,17 @@
         <v>14</v>
       </c>
       <c r="B22" s="17"/>
-      <c r="C22" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="83"/>
+      <c r="C22" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="88"/>
       <c r="L22" s="28"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1982,17 +1961,17 @@
         <v>15</v>
       </c>
       <c r="B23" s="13"/>
-      <c r="C23" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="54"/>
+      <c r="C23" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="77"/>
       <c r="L23" s="29"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2000,17 +1979,17 @@
         <v>16</v>
       </c>
       <c r="B24" s="13"/>
-      <c r="C24" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="54"/>
+      <c r="C24" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="77"/>
       <c r="L24" s="29"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2032,17 +2011,17 @@
         <v>21</v>
       </c>
       <c r="B26" s="24"/>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="62"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="85"/>
       <c r="L26" s="29"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2050,17 +2029,17 @@
         <v>22</v>
       </c>
       <c r="B27" s="13"/>
-      <c r="C27" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="52"/>
+      <c r="C27" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="76"/>
       <c r="L27" s="29"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2068,17 +2047,17 @@
         <v>23</v>
       </c>
       <c r="B28" s="13"/>
-      <c r="C28" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="54"/>
+      <c r="C28" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="77"/>
       <c r="L28" s="29"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -2086,17 +2065,17 @@
         <v>24</v>
       </c>
       <c r="B29" s="13"/>
-      <c r="C29" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="54"/>
+      <c r="C29" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="77"/>
       <c r="L29" s="29"/>
     </row>
     <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2104,17 +2083,17 @@
         <v>26</v>
       </c>
       <c r="B30" s="27"/>
-      <c r="C30" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="56"/>
+      <c r="C30" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="79"/>
       <c r="L30" s="29"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -2148,17 +2127,7 @@
       <c r="L32" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A1:K4"/>
-    <mergeCell ref="C7:K8"/>
-    <mergeCell ref="C11:K12"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
+  <mergeCells count="21">
     <mergeCell ref="C27:K27"/>
     <mergeCell ref="C28:K28"/>
     <mergeCell ref="C29:K29"/>
@@ -2169,6 +2138,17 @@
     <mergeCell ref="C22:K22"/>
     <mergeCell ref="C23:K23"/>
     <mergeCell ref="C24:K24"/>
+    <mergeCell ref="A1:K3"/>
+    <mergeCell ref="C6:K7"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C11:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Source/Documentation/Device Definitions Examples & Templates/openXDA Configuration Template - PQ.xlsx
+++ b/Source/Documentation/Device Definitions Examples & Templates/openXDA Configuration Template - PQ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\openXDA\Source\Documentation\Device Definitions Examples &amp; Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjenks\Documents\Projects\GitHub\openXDA\Source\Documentation\Device Definitions Examples &amp; Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -164,8 +164,47 @@
     </r>
   </si>
   <si>
+    <t>Accurate line length, specified in miles by default: numeric decimal value</t>
+  </si>
+  <si>
+    <t>stationID at the other end of the line if a reporting device is located there: up to 50 char</t>
+  </si>
+  <si>
+    <t>stationName at the other end of the line if a reporting device is located there: up to 200 char</t>
+  </si>
+  <si>
+    <t>Positive sequence resistance: nummeric decimal value</t>
+  </si>
+  <si>
+    <t>Zero sequence resistance: nummeric decimal value</t>
+  </si>
+  <si>
+    <t>Positive sequence reactance: nummeric decimal value</t>
+  </si>
+  <si>
+    <t>Zero sequence reactance: nummeric decimal value</t>
+  </si>
+  <si>
+    <t>This template is intended for use in configuring an openXDA database for data from substation devices such as PQ monitors or relays; one device per template. A separate template is available for DFRs. Each device must be defined by specifying the information described below. Please enter a value for each parameter. "ID" fields are limited to 50 characters, other non-numeric fields can contain up to 200 characters.</t>
+  </si>
+  <si>
+    <t>Human readable name for the reporting device; PQ Monitor etc. Up to 200 characters.</t>
+  </si>
+  <si>
+    <t>Specific information about the reporting device; PQ Monitor etc. Up to 200 characters each for make and model fields.</t>
+  </si>
+  <si>
+    <t>Unique ID for the location of the device: Up to 50 characters.</t>
+  </si>
+  <si>
+    <t>Human readable name for the location: Up to 200 characters.</t>
+  </si>
+  <si>
+    <t>Human readable name for the line or location: Up to 200 characters.</t>
+  </si>
+  <si>
     <r>
-      <t>Nominal voltage in</t>
+      <t>Line-to-line Nominal voltage in</t>
     </r>
     <r>
       <rPr>
@@ -188,45 +227,6 @@
       </rPr>
       <t>: numeric decimal value</t>
     </r>
-  </si>
-  <si>
-    <t>Accurate line length, specified in miles by default: numeric decimal value</t>
-  </si>
-  <si>
-    <t>stationID at the other end of the line if a reporting device is located there: up to 50 char</t>
-  </si>
-  <si>
-    <t>stationName at the other end of the line if a reporting device is located there: up to 200 char</t>
-  </si>
-  <si>
-    <t>Positive sequence resistance: nummeric decimal value</t>
-  </si>
-  <si>
-    <t>Zero sequence resistance: nummeric decimal value</t>
-  </si>
-  <si>
-    <t>Positive sequence reactance: nummeric decimal value</t>
-  </si>
-  <si>
-    <t>Zero sequence reactance: nummeric decimal value</t>
-  </si>
-  <si>
-    <t>This template is intended for use in configuring an openXDA database for data from substation devices such as PQ monitors or relays; one device per template. A separate template is available for DFRs. Each device must be defined by specifying the information described below. Please enter a value for each parameter. "ID" fields are limited to 50 characters, other non-numeric fields can contain up to 200 characters.</t>
-  </si>
-  <si>
-    <t>Human readable name for the reporting device; PQ Monitor etc. Up to 200 characters.</t>
-  </si>
-  <si>
-    <t>Specific information about the reporting device; PQ Monitor etc. Up to 200 characters each for make and model fields.</t>
-  </si>
-  <si>
-    <t>Unique ID for the location of the device: Up to 50 characters.</t>
-  </si>
-  <si>
-    <t>Human readable name for the location: Up to 200 characters.</t>
-  </si>
-  <si>
-    <t>Human readable name for the line or location: Up to 200 characters.</t>
   </si>
 </sst>
 </file>
@@ -1048,6 +1048,51 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1078,21 +1123,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1120,46 +1156,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1608,7 +1608,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K3"/>
+      <selection activeCell="C21" sqref="C21:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,47 +1619,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="53"/>
+      <c r="A1" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="68"/>
       <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="71"/>
       <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="71"/>
       <c r="L3" s="35"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1672,17 +1672,17 @@
       <c r="B5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="69"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="81"/>
       <c r="L5" s="36"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1690,32 +1690,32 @@
         <v>11</v>
       </c>
       <c r="B6" s="13"/>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="47"/>
       <c r="M6" s="20"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
       <c r="L7" s="47"/>
       <c r="M7" s="20"/>
     </row>
@@ -1745,17 +1745,17 @@
         <v>12</v>
       </c>
       <c r="B10" s="41"/>
-      <c r="C10" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="60"/>
+      <c r="C10" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="75"/>
       <c r="L10" s="48"/>
       <c r="M10" s="20"/>
     </row>
@@ -1764,17 +1764,17 @@
         <v>17</v>
       </c>
       <c r="B11" s="41"/>
-      <c r="C11" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="60"/>
+      <c r="C11" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="75"/>
       <c r="L11" s="48"/>
       <c r="M11" s="20"/>
     </row>
@@ -1783,15 +1783,15 @@
         <v>18</v>
       </c>
       <c r="B12" s="43"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="62"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="88"/>
       <c r="L12" s="48"/>
       <c r="M12" s="20"/>
     </row>
@@ -1800,68 +1800,68 @@
         <v>19</v>
       </c>
       <c r="B13" s="41"/>
-      <c r="C13" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="72"/>
+      <c r="C13" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="84"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="13"/>
-      <c r="C14" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="74"/>
+      <c r="C14" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="86"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="13"/>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="74"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="86"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="46" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="43"/>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="82"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="59"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L17" s="36"/>
@@ -1871,17 +1871,17 @@
         <v>32</v>
       </c>
       <c r="B18" s="6"/>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="69"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="81"/>
       <c r="L18" s="36"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1889,17 +1889,17 @@
         <v>10</v>
       </c>
       <c r="B19" s="13"/>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="64"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="77"/>
       <c r="L19" s="37"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1907,17 +1907,17 @@
         <v>12</v>
       </c>
       <c r="B20" s="13"/>
-      <c r="C20" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="66"/>
+      <c r="C20" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="78"/>
       <c r="L20" s="38"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1925,17 +1925,17 @@
         <v>13</v>
       </c>
       <c r="B21" s="15"/>
-      <c r="C21" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
+      <c r="C21" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
       <c r="L21" s="38"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1943,17 +1943,17 @@
         <v>14</v>
       </c>
       <c r="B22" s="17"/>
-      <c r="C22" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="88"/>
+      <c r="C22" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="65"/>
       <c r="L22" s="28"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1961,17 +1961,17 @@
         <v>15</v>
       </c>
       <c r="B23" s="13"/>
-      <c r="C23" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="77"/>
+      <c r="C23" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="54"/>
       <c r="L23" s="29"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1979,17 +1979,17 @@
         <v>16</v>
       </c>
       <c r="B24" s="13"/>
-      <c r="C24" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="77"/>
+      <c r="C24" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="54"/>
       <c r="L24" s="29"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2011,17 +2011,17 @@
         <v>21</v>
       </c>
       <c r="B26" s="24"/>
-      <c r="C26" s="83" t="s">
+      <c r="C26" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="85"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="62"/>
       <c r="L26" s="29"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2029,17 +2029,17 @@
         <v>22</v>
       </c>
       <c r="B27" s="13"/>
-      <c r="C27" s="75" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="76"/>
+      <c r="C27" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="52"/>
       <c r="L27" s="29"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2047,17 +2047,17 @@
         <v>23</v>
       </c>
       <c r="B28" s="13"/>
-      <c r="C28" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="77"/>
+      <c r="C28" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="54"/>
       <c r="L28" s="29"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -2065,17 +2065,17 @@
         <v>24</v>
       </c>
       <c r="B29" s="13"/>
-      <c r="C29" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="77"/>
+      <c r="C29" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="54"/>
       <c r="L29" s="29"/>
     </row>
     <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2083,17 +2083,17 @@
         <v>26</v>
       </c>
       <c r="B30" s="27"/>
-      <c r="C30" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="79"/>
+      <c r="C30" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="56"/>
       <c r="L30" s="29"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -2128,16 +2128,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="C28:K28"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="C23:K23"/>
-    <mergeCell ref="C24:K24"/>
     <mergeCell ref="A1:K3"/>
     <mergeCell ref="C6:K7"/>
     <mergeCell ref="C10:K10"/>
@@ -2149,6 +2139,16 @@
     <mergeCell ref="C14:K14"/>
     <mergeCell ref="C15:K15"/>
     <mergeCell ref="C11:K12"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="C23:K23"/>
+    <mergeCell ref="C24:K24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
